--- a/Reports/1k - Copy (3)/500 - Copy/100/20 - Copy (4)/1 - Copy (2)/test1 - Copy (3).xlsx
+++ b/Reports/1k - Copy (3)/500 - Copy/100/20 - Copy (4)/1 - Copy (2)/test1 - Copy (3).xlsx
@@ -102,13 +102,13 @@
     <t>10/19/21 03:12:15</t>
   </si>
   <si>
-    <t>90ac0b08af31dca3c205b7481d6320cc33167e43</t>
+    <t>3758346ffa120598c288513a4712b4e44f15de6b</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">4k
+    <t xml:space="preserve">5k
 </t>
   </si>
   <si>

--- a/Reports/1k - Copy (3)/500 - Copy/100/20 - Copy (4)/1 - Copy (2)/test1 - Copy (3).xlsx
+++ b/Reports/1k - Copy (3)/500 - Copy/100/20 - Copy (4)/1 - Copy (2)/test1 - Copy (3).xlsx
@@ -102,13 +102,13 @@
     <t>10/19/21 03:12:15</t>
   </si>
   <si>
-    <t>3758346ffa120598c288513a4712b4e44f15de6b</t>
+    <t>64394b90a7eea7c676b6a9e6f62c0325a18b26a5</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">5k
+    <t xml:space="preserve">10k
 </t>
   </si>
   <si>
